--- a/data/CH4-220.xlsx
+++ b/data/CH4-220.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://surreyac-my.sharepoint.com/personal/md01522_surrey_ac_uk/Documents/PhD Surrey/My Project/Python files/Kinetics/PE models/Implicit PE/Surrey Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{F8EC98E5-9D83-49E4-A8F8-01DA101D3B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28F45A20-107D-47E9-8065-314CD6CDFBD8}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{52CE374F-D66F-4211-9D93-4E9985CCC393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{837E927E-5F94-4AA2-AF17-68ED1937A89A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE29BAB3-1174-4539-BE8E-0A7DB9341039}"/>
   </bookViews>
@@ -190,7 +190,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Hyd-220'!$A$13:$A$352</c:f>
+              <c:f>'Hyd-220'!$A$2:$A$341</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="340"/>
@@ -1165,171 +1165,204 @@
                 </c:pt>
                 <c:pt idx="323">
                   <c:v>1919.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>1925.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>1931.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>1937.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>1943.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>1949.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>1955.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>1961.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>1967.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>1973.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>1979.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>1985.0000000000055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Hyd-220'!$B$13:$B$330</c:f>
+              <c:f>'Hyd-220'!$B$2:$B$336</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="318"/>
+                <c:ptCount val="335"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
                   <c:v>0.02</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
                   <c:v>0.02</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
                   <c:v>0.04</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="14">
                   <c:v>0.04</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="15">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="16">
                   <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="17">
                   <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="18">
                   <c:v>0.09</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19">
                   <c:v>0.11</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
                   <c:v>0.13</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
                   <c:v>0.14000000000000001</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
                   <c:v>0.16</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
                   <c:v>0.16</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="24">
                   <c:v>0.17</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="25">
                   <c:v>0.18</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="26">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="27">
                   <c:v>0.22</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="28">
                   <c:v>0.21</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="29">
                   <c:v>0.22</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="30">
                   <c:v>0.24</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="31">
                   <c:v>0.23</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="32">
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="33">
                   <c:v>0.26</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="34">
                   <c:v>0.31</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="35">
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="36">
                   <c:v>0.33</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="37">
                   <c:v>0.32</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="38">
                   <c:v>0.33</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="39">
                   <c:v>0.35</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="40">
                   <c:v>0.32</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="41">
                   <c:v>0.32</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="42">
                   <c:v>0.38</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="43">
                   <c:v>0.34</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="44">
                   <c:v>0.39</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="45">
                   <c:v>0.34</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="46">
                   <c:v>0.34</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="47">
                   <c:v>0.38</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="48">
                   <c:v>0.37</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="49">
                   <c:v>0.37</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="50">
                   <c:v>0.35</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="51">
                   <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0.39</c:v>
@@ -1338,31 +1371,31 @@
                   <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="54">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>0.48</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="61">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="62">
                   <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>0.41</c:v>
@@ -1371,202 +1404,202 @@
                   <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="65">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>0.49</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="72">
                   <c:v>0.43</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="73">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="74">
                   <c:v>0.43</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="75">
                   <c:v>0.43</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="76">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="77">
                   <c:v>0.39</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="78">
                   <c:v>0.42</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="79">
                   <c:v>0.39</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="80">
                   <c:v>0.41</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="81">
                   <c:v>0.42</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="82">
                   <c:v>0.37</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="83">
                   <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="85">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>0.36</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="92">
                   <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>0.34</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="101">
                   <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.31</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="106">
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.3</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.3</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="109">
                   <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.34</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="116">
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="117">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="123">
                   <c:v>0.31</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="124">
                   <c:v>0.24</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="125">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="126">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="127">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="128">
                   <c:v>0.22</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="129">
                   <c:v>0.26</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="130">
                   <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="131">
                   <c:v>0.23</c:v>
@@ -1578,202 +1611,202 @@
                   <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="134">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="135">
                   <c:v>0.22</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="136">
                   <c:v>0.21</c:v>
                 </c:pt>
-                <c:pt idx="136">
-                  <c:v>0.25</c:v>
-                </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.24</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.24</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.19</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="140">
                   <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="141">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="147">
                   <c:v>0.18</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="148">
                   <c:v>0.19</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="149">
                   <c:v>0.18</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="150">
                   <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="151">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="152">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="155">
                   <c:v>0.19</c:v>
                 </c:pt>
-                <c:pt idx="153">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="156">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="156">
-                  <c:v>0.18</c:v>
-                </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.18</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="159">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="165">
                   <c:v>0.16</c:v>
                 </c:pt>
-                <c:pt idx="160">
+                <c:pt idx="166">
                   <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="167">
                   <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="168">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="170">
                   <c:v>0.12</c:v>
                 </c:pt>
-                <c:pt idx="169">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0.11</c:v>
-                </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.11</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="172">
                   <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.11</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.11</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="175">
                   <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="177">
                   <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="178">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="184">
                   <c:v>0.09</c:v>
                 </c:pt>
-                <c:pt idx="179">
+                <c:pt idx="185">
                   <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="186">
                   <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.08</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="188">
                   <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="189">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="191">
                   <c:v>0.08</c:v>
                 </c:pt>
-                <c:pt idx="190">
+                <c:pt idx="192">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="193">
                   <c:v>0.08</c:v>
                 </c:pt>
-                <c:pt idx="191">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="192">
+                <c:pt idx="194">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="195">
                   <c:v>0.08</c:v>
                 </c:pt>
-                <c:pt idx="193">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
                 <c:pt idx="196">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="197">
                   <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="200">
                   <c:v>7.0000000000000007E-2</c:v>
@@ -1782,7 +1815,7 @@
                   <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.06</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="203">
                   <c:v>7.0000000000000007E-2</c:v>
@@ -1791,94 +1824,94 @@
                   <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.06</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.06</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.06</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="208">
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="209">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="211">
                   <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="212">
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="213">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="216">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="214">
+                <c:pt idx="217">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="215">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>0.04</c:v>
-                </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.04</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="219">
                   <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.04</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.03</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="222">
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.03</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.03</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.03</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.03</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="227">
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="228">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="229">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="229">
-                  <c:v>0.02</c:v>
-                </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.02</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.02</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.02</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.02</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.02</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="235">
                   <c:v>0.02</c:v>
@@ -1887,7 +1920,7 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="238">
                   <c:v>0.02</c:v>
@@ -1896,22 +1929,22 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="243">
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="246">
                   <c:v>0.01</c:v>
@@ -1926,7 +1959,7 @@
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="251">
                   <c:v>0.01</c:v>
@@ -1935,19 +1968,19 @@
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="256">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="258">
                   <c:v>0.01</c:v>
@@ -1968,7 +2001,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="265">
                   <c:v>0</c:v>
@@ -2127,6 +2160,57 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="317">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="334">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2135,7 +2219,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C187-484E-AC94-C5406D6C79B0}"/>
+              <c16:uniqueId val="{00000000-9878-4828-9763-5CFE03DA1502}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2147,11 +2231,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2044029344"/>
-        <c:axId val="2044030784"/>
+        <c:axId val="1068036543"/>
+        <c:axId val="1068037023"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2044029344"/>
+        <c:axId val="1068036543"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,12 +2292,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044030784"/>
+        <c:crossAx val="1068037023"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2044030784"/>
+        <c:axId val="1068037023"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2270,7 +2354,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044029344"/>
+        <c:crossAx val="1068036543"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2886,23 +2970,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>311394</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>483577</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>18317</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDC34BFF-A6E7-1568-15DF-681B50BEE4EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F436E86-069C-37C1-0068-05A061B6BECD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3247,7 +3331,7 @@
   <dimension ref="A1:B341"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B337" sqref="B337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3264,298 +3348,385 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>35.999999999998181</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>41.999999999998181</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>47.999999999998181</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>53.999999999998181</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>59.999999999998181</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>0</v>
+        <v>65.999999999996362</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>6</v>
+        <v>71.999999999996362</v>
       </c>
       <c r="B14" s="1">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>77.999999999996362</v>
       </c>
       <c r="B15" s="1">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>18</v>
+        <v>83.999999999996362</v>
       </c>
       <c r="B16" s="1">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>24</v>
+        <v>89.999999999996362</v>
       </c>
       <c r="B17" s="1">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>30</v>
+        <v>95.999999999994543</v>
       </c>
       <c r="B18" s="1">
-        <v>0.02</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>35.999999999998181</v>
+        <v>101.99999999999454</v>
       </c>
       <c r="B19" s="1">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41.999999999998181</v>
+        <v>107.99999999999454</v>
       </c>
       <c r="B20" s="1">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>47.999999999998181</v>
+        <v>113.99999999999454</v>
       </c>
       <c r="B21" s="1">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>53.999999999998181</v>
+        <v>119.99999999999454</v>
       </c>
       <c r="B22" s="1">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>59.999999999998181</v>
+        <v>125.99999999999272</v>
       </c>
       <c r="B23" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>65.999999999996362</v>
+        <v>131.99999999999272</v>
       </c>
       <c r="B24" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>71.999999999996362</v>
+        <v>137.99999999999272</v>
       </c>
       <c r="B25" s="1">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>77.999999999996362</v>
+        <v>143.99999999999272</v>
       </c>
       <c r="B26" s="1">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>83.999999999996362</v>
+        <v>149.99999999999272</v>
       </c>
       <c r="B27" s="1">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>89.999999999996362</v>
+        <v>155.99999999999272</v>
       </c>
       <c r="B28" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>95.999999999994543</v>
+        <v>161.99999999999091</v>
       </c>
       <c r="B29" s="1">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>101.99999999999454</v>
+        <v>167.99999999999091</v>
       </c>
       <c r="B30" s="1">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>107.99999999999454</v>
+        <v>173.99999999999091</v>
       </c>
       <c r="B31" s="1">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>113.99999999999454</v>
+        <v>179.99999999999091</v>
       </c>
       <c r="B32" s="1">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>119.99999999999454</v>
+        <v>185.99999999999091</v>
       </c>
       <c r="B33" s="1">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>125.99999999999272</v>
+        <v>191.99999999998909</v>
       </c>
       <c r="B34" s="1">
-        <v>0.22</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>131.99999999999272</v>
+        <v>197.99999999998909</v>
       </c>
       <c r="B35" s="1">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>137.99999999999272</v>
+        <v>203.99999999998909</v>
       </c>
       <c r="B36" s="1">
-        <v>0.22</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>143.99999999999272</v>
+        <v>209.99999999998909</v>
       </c>
       <c r="B37" s="1">
-        <v>0.24</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>149.99999999999272</v>
+        <v>215.99999999998909</v>
       </c>
       <c r="B38" s="1">
-        <v>0.23</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>155.99999999999272</v>
+        <v>221.99999999998909</v>
       </c>
       <c r="B39" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>161.99999999999091</v>
+        <v>227.99999999998727</v>
       </c>
       <c r="B40" s="1">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>167.99999999999091</v>
+        <v>233.99999999998727</v>
       </c>
       <c r="B41" s="1">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>173.99999999999091</v>
+        <v>239.99999999998727</v>
       </c>
       <c r="B42" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="43" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>179.99999999999091</v>
+        <v>245.99999999998727</v>
       </c>
       <c r="B43" s="1">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>185.99999999999091</v>
+        <v>251.99999999998727</v>
       </c>
       <c r="B44" s="1">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>191.99999999998909</v>
+        <v>257.99999999998545</v>
       </c>
       <c r="B45" s="1">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>197.99999999998909</v>
+        <v>263.99999999998545</v>
       </c>
       <c r="B46" s="1">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="47" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>203.99999999998909</v>
+        <v>269.99999999998545</v>
       </c>
       <c r="B47" s="1">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>209.99999999998909</v>
+        <v>275.99999999998545</v>
       </c>
       <c r="B48" s="1">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="49" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>215.99999999998909</v>
+        <v>281.99999999998545</v>
       </c>
       <c r="B49" s="1">
         <v>0.38</v>
@@ -3563,151 +3734,151 @@
     </row>
     <row r="50" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>221.99999999998909</v>
+        <v>287.99999999998363</v>
       </c>
       <c r="B50" s="1">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>227.99999999998727</v>
+        <v>293.99999999998363</v>
       </c>
       <c r="B51" s="1">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>233.99999999998727</v>
+        <v>299.99999999998363</v>
       </c>
       <c r="B52" s="1">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>239.99999999998727</v>
+        <v>305.99999999998363</v>
       </c>
       <c r="B53" s="1">
-        <v>0.34</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>245.99999999998727</v>
+        <v>311.99999999998363</v>
       </c>
       <c r="B54" s="1">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="55" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>251.99999999998727</v>
+        <v>317.99999999998181</v>
       </c>
       <c r="B55" s="1">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="56" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>257.99999999998545</v>
+        <v>323.99999999998181</v>
       </c>
       <c r="B56" s="1">
-        <v>0.37</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>263.99999999998545</v>
+        <v>329.99999999998181</v>
       </c>
       <c r="B57" s="1">
-        <v>0.35</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="58" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>269.99999999998545</v>
+        <v>335.99999999998181</v>
       </c>
       <c r="B58" s="1">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="59" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>275.99999999998545</v>
+        <v>341.99999999998181</v>
       </c>
       <c r="B59" s="1">
-        <v>0.39</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="60" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>281.99999999998545</v>
+        <v>347.99999999998181</v>
       </c>
       <c r="B60" s="1">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="61" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>287.99999999998363</v>
+        <v>353.99999999997999</v>
       </c>
       <c r="B61" s="1">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="62" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>293.99999999998363</v>
+        <v>359.99999999997999</v>
       </c>
       <c r="B62" s="1">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="63" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>299.99999999998363</v>
+        <v>365.99999999997999</v>
       </c>
       <c r="B63" s="1">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="64" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>305.99999999998363</v>
+        <v>371.99999999997999</v>
       </c>
       <c r="B64" s="1">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="65" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>311.99999999998363</v>
+        <v>377.99999999997999</v>
       </c>
       <c r="B65" s="1">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="66" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>317.99999999998181</v>
+        <v>383.99999999997817</v>
       </c>
       <c r="B66" s="1">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="67" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>323.99999999998181</v>
+        <v>389.99999999997817</v>
       </c>
       <c r="B67" s="1">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="68" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>329.99999999998181</v>
+        <v>395.99999999997817</v>
       </c>
       <c r="B68" s="1">
         <v>0.4</v>
@@ -3715,15 +3886,15 @@
     </row>
     <row r="69" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>335.99999999998181</v>
+        <v>401.99999999997817</v>
       </c>
       <c r="B69" s="1">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="70" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>341.99999999998181</v>
+        <v>407.99999999997817</v>
       </c>
       <c r="B70" s="1">
         <v>0.41</v>
@@ -3731,7 +3902,7 @@
     </row>
     <row r="71" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>347.99999999998181</v>
+        <v>413.99999999997817</v>
       </c>
       <c r="B71" s="1">
         <v>0.41</v>
@@ -3739,7 +3910,7 @@
     </row>
     <row r="72" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>353.99999999997999</v>
+        <v>419.99999999997635</v>
       </c>
       <c r="B72" s="1">
         <v>0.41</v>
@@ -3747,223 +3918,223 @@
     </row>
     <row r="73" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>359.99999999997999</v>
+        <v>425.99999999997635</v>
       </c>
       <c r="B73" s="1">
-        <v>0.4</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="74" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>365.99999999997999</v>
+        <v>431.99999999997635</v>
       </c>
       <c r="B74" s="1">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="75" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>371.99999999997999</v>
+        <v>437.99999999997635</v>
       </c>
       <c r="B75" s="1">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="76" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>377.99999999997999</v>
+        <v>443.99999999997635</v>
       </c>
       <c r="B76" s="1">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="77" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>383.99999999997817</v>
+        <v>449.99999999997453</v>
       </c>
       <c r="B77" s="1">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="78" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>389.99999999997817</v>
+        <v>455.99999999997453</v>
       </c>
       <c r="B78" s="1">
-        <v>0.49</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="79" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>395.99999999997817</v>
+        <v>461.99999999997453</v>
       </c>
       <c r="B79" s="1">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>401.99999999997817</v>
+        <v>467.99999999997453</v>
       </c>
       <c r="B80" s="1">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="81" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>407.99999999997817</v>
+        <v>473.99999999997453</v>
       </c>
       <c r="B81" s="1">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="82" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>413.99999999997817</v>
+        <v>479.99999999997272</v>
       </c>
       <c r="B82" s="1">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="83" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>419.99999999997635</v>
+        <v>485.99999999997272</v>
       </c>
       <c r="B83" s="1">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="84" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>425.99999999997635</v>
+        <v>491.99999999997272</v>
       </c>
       <c r="B84" s="1">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="85" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>431.99999999997635</v>
+        <v>497.99999999997272</v>
       </c>
       <c r="B85" s="1">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="86" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>437.99999999997635</v>
+        <v>503.99999999997272</v>
       </c>
       <c r="B86" s="1">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="87" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>443.99999999997635</v>
+        <v>509.9999999999709</v>
       </c>
       <c r="B87" s="1">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="88" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>449.99999999997453</v>
+        <v>515.9999999999709</v>
       </c>
       <c r="B88" s="1">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="89" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>455.99999999997453</v>
+        <v>521.9999999999709</v>
       </c>
       <c r="B89" s="1">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="90" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>461.99999999997453</v>
+        <v>527.9999999999709</v>
       </c>
       <c r="B90" s="1">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="91" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>467.99999999997453</v>
+        <v>533.9999999999709</v>
       </c>
       <c r="B91" s="1">
-        <v>0.37</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="92" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>473.99999999997453</v>
+        <v>539.9999999999709</v>
       </c>
       <c r="B92" s="1">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>479.99999999997272</v>
+        <v>545.99999999996908</v>
       </c>
       <c r="B93" s="1">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="94" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>485.99999999997272</v>
+        <v>551.99999999996908</v>
       </c>
       <c r="B94" s="1">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="95" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>491.99999999997272</v>
+        <v>557.99999999996908</v>
       </c>
       <c r="B95" s="1">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="96" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>497.99999999997272</v>
+        <v>563.99999999996908</v>
       </c>
       <c r="B96" s="1">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="97" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>503.99999999997272</v>
+        <v>569.99999999996908</v>
       </c>
       <c r="B97" s="1">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>509.9999999999709</v>
+        <v>575.99999999996726</v>
       </c>
       <c r="B98" s="1">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="99" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>515.9999999999709</v>
+        <v>581.99999999996726</v>
       </c>
       <c r="B99" s="1">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="100" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>521.9999999999709</v>
+        <v>587.99999999996726</v>
       </c>
       <c r="B100" s="1">
         <v>0.36</v>
@@ -3971,7 +4142,7 @@
     </row>
     <row r="101" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>527.9999999999709</v>
+        <v>593.99999999996726</v>
       </c>
       <c r="B101" s="1">
         <v>0.36</v>
@@ -3979,63 +4150,63 @@
     </row>
     <row r="102" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>533.9999999999709</v>
+        <v>599.99999999996726</v>
       </c>
       <c r="B102" s="1">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="103" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>539.9999999999709</v>
+        <v>605.99999999996726</v>
       </c>
       <c r="B103" s="1">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="104" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>545.99999999996908</v>
+        <v>611.99999999996544</v>
       </c>
       <c r="B104" s="1">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="105" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>551.99999999996908</v>
+        <v>617.99999999996544</v>
       </c>
       <c r="B105" s="1">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="106" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>557.99999999996908</v>
+        <v>623.99999999996544</v>
       </c>
       <c r="B106" s="1">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="107" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>563.99999999996908</v>
+        <v>629.99999999996544</v>
       </c>
       <c r="B107" s="1">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>569.99999999996908</v>
+        <v>635.99999999996544</v>
       </c>
       <c r="B108" s="1">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="109" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>575.99999999996726</v>
+        <v>641.99999999996362</v>
       </c>
       <c r="B109" s="1">
         <v>0.33</v>
@@ -4043,7 +4214,7 @@
     </row>
     <row r="110" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>581.99999999996726</v>
+        <v>647.99999999996362</v>
       </c>
       <c r="B110" s="1">
         <v>0.33</v>
@@ -4051,63 +4222,63 @@
     </row>
     <row r="111" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>587.99999999996726</v>
+        <v>653.99999999996362</v>
       </c>
       <c r="B111" s="1">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="112" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>593.99999999996726</v>
+        <v>659.99999999996362</v>
       </c>
       <c r="B112" s="1">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>599.99999999996726</v>
+        <v>665.99999999996362</v>
       </c>
       <c r="B113" s="1">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="114" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>605.99999999996726</v>
+        <v>671.9999999999618</v>
       </c>
       <c r="B114" s="1">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="115" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>611.99999999996544</v>
+        <v>677.9999999999618</v>
       </c>
       <c r="B115" s="1">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="116" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>617.99999999996544</v>
+        <v>683.9999999999618</v>
       </c>
       <c r="B116" s="1">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="117" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>623.99999999996544</v>
+        <v>689.9999999999618</v>
       </c>
       <c r="B117" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>629.99999999996544</v>
+        <v>695.9999999999618</v>
       </c>
       <c r="B118" s="1">
         <v>0.28000000000000003</v>
@@ -4115,39 +4286,39 @@
     </row>
     <row r="119" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>635.99999999996544</v>
+        <v>701.99999999995998</v>
       </c>
       <c r="B119" s="1">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="120" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>641.99999999996362</v>
+        <v>707.99999999995998</v>
       </c>
       <c r="B120" s="1">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="121" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>647.99999999996362</v>
+        <v>713.99999999995998</v>
       </c>
       <c r="B121" s="1">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="122" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>653.99999999996362</v>
+        <v>719.99999999995998</v>
       </c>
       <c r="B122" s="1">
-        <v>0.31</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>659.99999999996362</v>
+        <v>725.99999999995998</v>
       </c>
       <c r="B123" s="1">
         <v>0.28000000000000003</v>
@@ -4155,7 +4326,7 @@
     </row>
     <row r="124" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>665.99999999996362</v>
+        <v>731.99999999995998</v>
       </c>
       <c r="B124" s="1">
         <v>0.28000000000000003</v>
@@ -4163,87 +4334,87 @@
     </row>
     <row r="125" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>671.9999999999618</v>
+        <v>737.99999999995816</v>
       </c>
       <c r="B125" s="1">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="126" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>677.9999999999618</v>
+        <v>743.99999999995816</v>
       </c>
       <c r="B126" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="127" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>683.9999999999618</v>
+        <v>749.99999999995816</v>
       </c>
       <c r="B127" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>689.9999999999618</v>
+        <v>755.99999999995816</v>
       </c>
       <c r="B128" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="129" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>695.9999999999618</v>
+        <v>761.99999999995816</v>
       </c>
       <c r="B129" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="130" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>701.99999999995998</v>
+        <v>767.99999999995634</v>
       </c>
       <c r="B130" s="1">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="131" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>707.99999999995998</v>
+        <v>773.99999999995634</v>
       </c>
       <c r="B131" s="1">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="132" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>713.99999999995998</v>
+        <v>779.99999999995634</v>
       </c>
       <c r="B132" s="1">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="133" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>719.99999999995998</v>
+        <v>785.99999999995634</v>
       </c>
       <c r="B133" s="1">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="134" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>725.99999999995998</v>
+        <v>791.99999999995634</v>
       </c>
       <c r="B134" s="1">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="135" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>731.99999999995998</v>
+        <v>797.99999999995634</v>
       </c>
       <c r="B135" s="1">
         <v>0.22</v>
@@ -4251,39 +4422,39 @@
     </row>
     <row r="136" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>737.99999999995816</v>
+        <v>803.99999999995453</v>
       </c>
       <c r="B136" s="1">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="137" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>743.99999999995816</v>
+        <v>809.99999999995453</v>
       </c>
       <c r="B137" s="1">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="138" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>749.99999999995816</v>
+        <v>815.99999999995453</v>
       </c>
       <c r="B138" s="1">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="139" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>755.99999999995816</v>
+        <v>821.99999999995453</v>
       </c>
       <c r="B139" s="1">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="140" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>761.99999999995816</v>
+        <v>827.99999999995453</v>
       </c>
       <c r="B140" s="1">
         <v>0.22</v>
@@ -4291,15 +4462,15 @@
     </row>
     <row r="141" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>767.99999999995634</v>
+        <v>833.99999999995271</v>
       </c>
       <c r="B141" s="1">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="142" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>773.99999999995634</v>
+        <v>839.99999999995271</v>
       </c>
       <c r="B142" s="1">
         <v>0.22</v>
@@ -4307,7 +4478,7 @@
     </row>
     <row r="143" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>779.99999999995634</v>
+        <v>845.99999999995271</v>
       </c>
       <c r="B143" s="1">
         <v>0.21</v>
@@ -4315,71 +4486,71 @@
     </row>
     <row r="144" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>785.99999999995634</v>
+        <v>851.99999999995271</v>
       </c>
       <c r="B144" s="1">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="145" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>791.99999999995634</v>
+        <v>857.99999999995271</v>
       </c>
       <c r="B145" s="1">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="146" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>797.99999999995634</v>
+        <v>863.99999999995089</v>
       </c>
       <c r="B146" s="1">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="147" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>803.99999999995453</v>
+        <v>869.99999999995089</v>
       </c>
       <c r="B147" s="1">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="148" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>809.99999999995453</v>
+        <v>875.99999999995089</v>
       </c>
       <c r="B148" s="1">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="149" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>815.99999999995453</v>
+        <v>881.99999999995089</v>
       </c>
       <c r="B149" s="1">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="150" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>821.99999999995453</v>
+        <v>887.99999999995089</v>
       </c>
       <c r="B150" s="1">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="151" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>827.99999999995453</v>
+        <v>893.99999999994907</v>
       </c>
       <c r="B151" s="1">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="152" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>833.99999999995271</v>
+        <v>899.99999999994907</v>
       </c>
       <c r="B152" s="1">
         <v>0.19</v>
@@ -4387,15 +4558,15 @@
     </row>
     <row r="153" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>839.99999999995271</v>
+        <v>905.99999999994907</v>
       </c>
       <c r="B153" s="1">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="154" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>845.99999999995271</v>
+        <v>911.99999999994907</v>
       </c>
       <c r="B154" s="1">
         <v>0.18</v>
@@ -4403,23 +4574,23 @@
     </row>
     <row r="155" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>851.99999999995271</v>
+        <v>917.99999999994907</v>
       </c>
       <c r="B155" s="1">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="156" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>857.99999999995271</v>
+        <v>923.99999999994907</v>
       </c>
       <c r="B156" s="1">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="157" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>863.99999999995089</v>
+        <v>929.99999999994725</v>
       </c>
       <c r="B157" s="1">
         <v>0.19</v>
@@ -4427,7 +4598,7 @@
     </row>
     <row r="158" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>869.99999999995089</v>
+        <v>935.99999999994725</v>
       </c>
       <c r="B158" s="1">
         <v>0.2</v>
@@ -4435,31 +4606,31 @@
     </row>
     <row r="159" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>875.99999999995089</v>
+        <v>941.99999999994725</v>
       </c>
       <c r="B159" s="1">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="160" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>881.99999999995089</v>
+        <v>947.99999999994725</v>
       </c>
       <c r="B160" s="1">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="161" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>887.99999999995089</v>
+        <v>953.99999999994725</v>
       </c>
       <c r="B161" s="1">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="162" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>893.99999999994907</v>
+        <v>959.99999999994543</v>
       </c>
       <c r="B162" s="1">
         <v>0.19</v>
@@ -4467,7 +4638,7 @@
     </row>
     <row r="163" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>899.99999999994907</v>
+        <v>996.00000000000182</v>
       </c>
       <c r="B163" s="1">
         <v>0.2</v>
@@ -4475,95 +4646,95 @@
     </row>
     <row r="164" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>905.99999999994907</v>
+        <v>1002.0000000000027</v>
       </c>
       <c r="B164" s="1">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="165" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>911.99999999994907</v>
+        <v>1008.0000000000036</v>
       </c>
       <c r="B165" s="1">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="166" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>917.99999999994907</v>
+        <v>1012.9999999999982</v>
       </c>
       <c r="B166" s="1">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="167" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>923.99999999994907</v>
+        <v>1018.9999999999991</v>
       </c>
       <c r="B167" s="1">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="168" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>929.99999999994725</v>
+        <v>1025</v>
       </c>
       <c r="B168" s="1">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="169" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>935.99999999994725</v>
+        <v>1030.0000000000045</v>
       </c>
       <c r="B169" s="1">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="170" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>941.99999999994725</v>
+        <v>1036.0000000000045</v>
       </c>
       <c r="B170" s="1">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="171" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>947.99999999994725</v>
+        <v>1042.0000000000055</v>
       </c>
       <c r="B171" s="1">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="172" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>953.99999999994725</v>
+        <v>1046.9999999999991</v>
       </c>
       <c r="B172" s="1">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="173" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>959.99999999994543</v>
+        <v>1053.0000000000009</v>
       </c>
       <c r="B173" s="1">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="174" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>996.00000000000182</v>
+        <v>1059.0000000000018</v>
       </c>
       <c r="B174" s="1">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="175" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>1002.0000000000027</v>
+        <v>1064.0000000000064</v>
       </c>
       <c r="B175" s="1">
         <v>0.13</v>
@@ -4571,31 +4742,31 @@
     </row>
     <row r="176" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>1008.0000000000036</v>
+        <v>1069.9999999999973</v>
       </c>
       <c r="B176" s="1">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="177" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>1012.9999999999982</v>
+        <v>1075.9999999999982</v>
       </c>
       <c r="B177" s="1">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="178" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>1018.9999999999991</v>
+        <v>1082</v>
       </c>
       <c r="B178" s="1">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>1025</v>
+        <v>1087.0000000000036</v>
       </c>
       <c r="B179" s="1">
         <v>0.11</v>
@@ -4603,23 +4774,23 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>1030.0000000000045</v>
+        <v>1093.0000000000036</v>
       </c>
       <c r="B180" s="1">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>1036.0000000000045</v>
+        <v>1099.0000000000045</v>
       </c>
       <c r="B181" s="1">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>1042.0000000000055</v>
+        <v>1103.9999999999982</v>
       </c>
       <c r="B182" s="1">
         <v>0.11</v>
@@ -4627,7 +4798,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>1046.9999999999991</v>
+        <v>1110</v>
       </c>
       <c r="B183" s="1">
         <v>0.11</v>
@@ -4635,15 +4806,15 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>1053.0000000000009</v>
+        <v>1116.0000000000018</v>
       </c>
       <c r="B184" s="1">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>1059.0000000000018</v>
+        <v>1121.0000000000055</v>
       </c>
       <c r="B185" s="1">
         <v>0.11</v>
@@ -4651,47 +4822,47 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>1064.0000000000064</v>
+        <v>1127.0000000000064</v>
       </c>
       <c r="B186" s="1">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>1069.9999999999973</v>
+        <v>1132.9999999999982</v>
       </c>
       <c r="B187" s="1">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>1075.9999999999982</v>
+        <v>1138.0000000000018</v>
       </c>
       <c r="B188" s="1">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>1082</v>
+        <v>1144.0000000000036</v>
       </c>
       <c r="B189" s="1">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>1087.0000000000036</v>
+        <v>1150.0000000000027</v>
       </c>
       <c r="B190" s="1">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>1093.0000000000036</v>
+        <v>1154.9999999999982</v>
       </c>
       <c r="B191" s="1">
         <v>0.09</v>
@@ -4699,7 +4870,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>1099.0000000000045</v>
+        <v>1160.9999999999982</v>
       </c>
       <c r="B192" s="1">
         <v>0.1</v>
@@ -4707,15 +4878,15 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>1103.9999999999982</v>
+        <v>1166.9999999999991</v>
       </c>
       <c r="B193" s="1">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>1110</v>
+        <v>1172.0000000000036</v>
       </c>
       <c r="B194" s="1">
         <v>0.09</v>
@@ -4723,15 +4894,15 @@
     </row>
     <row r="195" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>1116.0000000000018</v>
+        <v>1178.0000000000045</v>
       </c>
       <c r="B195" s="1">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="196" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>1121.0000000000055</v>
+        <v>1184.0000000000064</v>
       </c>
       <c r="B196" s="1">
         <v>0.09</v>
@@ -4739,15 +4910,15 @@
     </row>
     <row r="197" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>1127.0000000000064</v>
+        <v>1190.0000000000055</v>
       </c>
       <c r="B197" s="1">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="198" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>1132.9999999999982</v>
+        <v>1195.0000000000009</v>
       </c>
       <c r="B198" s="1">
         <v>0.08</v>
@@ -4755,15 +4926,15 @@
     </row>
     <row r="199" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>1138.0000000000018</v>
+        <v>1201.0000000000027</v>
       </c>
       <c r="B199" s="1">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="200" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>1144.0000000000036</v>
+        <v>1207.0000000000018</v>
       </c>
       <c r="B200" s="1">
         <v>0.08</v>
@@ -4771,7 +4942,7 @@
     </row>
     <row r="201" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>1150.0000000000027</v>
+        <v>1212.0000000000064</v>
       </c>
       <c r="B201" s="1">
         <v>0.09</v>
@@ -4779,23 +4950,23 @@
     </row>
     <row r="202" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>1154.9999999999982</v>
+        <v>1217.9999999999973</v>
       </c>
       <c r="B202" s="1">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="203" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>1160.9999999999982</v>
+        <v>1223.9999999999982</v>
       </c>
       <c r="B203" s="1">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="204" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>1166.9999999999991</v>
+        <v>1229.0000000000027</v>
       </c>
       <c r="B204" s="1">
         <v>7.0000000000000007E-2</v>
@@ -4803,23 +4974,23 @@
     </row>
     <row r="205" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>1172.0000000000036</v>
+        <v>1235.0000000000036</v>
       </c>
       <c r="B205" s="1">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="206" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>1178.0000000000045</v>
+        <v>1241.0000000000055</v>
       </c>
       <c r="B206" s="1">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="207" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>1184.0000000000064</v>
+        <v>1245.9999999999991</v>
       </c>
       <c r="B207" s="1">
         <v>7.0000000000000007E-2</v>
@@ -4827,7 +4998,7 @@
     </row>
     <row r="208" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>1190.0000000000055</v>
+        <v>1252</v>
       </c>
       <c r="B208" s="1">
         <v>7.0000000000000007E-2</v>
@@ -4835,7 +5006,7 @@
     </row>
     <row r="209" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>1195.0000000000009</v>
+        <v>1258.0000000000018</v>
       </c>
       <c r="B209" s="1">
         <v>7.0000000000000007E-2</v>
@@ -4843,15 +5014,15 @@
     </row>
     <row r="210" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>1201.0000000000027</v>
+        <v>1264.0000000000018</v>
       </c>
       <c r="B210" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="211" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>1207.0000000000018</v>
+        <v>1269.0000000000055</v>
       </c>
       <c r="B211" s="1">
         <v>7.0000000000000007E-2</v>
@@ -4859,7 +5030,7 @@
     </row>
     <row r="212" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>1212.0000000000064</v>
+        <v>1274.9999999999964</v>
       </c>
       <c r="B212" s="1">
         <v>7.0000000000000007E-2</v>
@@ -4867,23 +5038,23 @@
     </row>
     <row r="213" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>1217.9999999999973</v>
+        <v>1280.9999999999982</v>
       </c>
       <c r="B213" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="214" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>1223.9999999999982</v>
+        <v>1286.0000000000018</v>
       </c>
       <c r="B214" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="215" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>1229.0000000000027</v>
+        <v>1292.0000000000036</v>
       </c>
       <c r="B215" s="1">
         <v>0.06</v>
@@ -4891,39 +5062,39 @@
     </row>
     <row r="216" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>1235.0000000000036</v>
+        <v>1298.0000000000045</v>
       </c>
       <c r="B216" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="217" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>1241.0000000000055</v>
+        <v>1302.9999999999982</v>
       </c>
       <c r="B217" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="218" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>1245.9999999999991</v>
+        <v>1309</v>
       </c>
       <c r="B218" s="1">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="219" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>1252</v>
+        <v>1315.0000000000009</v>
       </c>
       <c r="B219" s="1">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="220" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>1258.0000000000018</v>
+        <v>1321.0000000000009</v>
       </c>
       <c r="B220" s="1">
         <v>0.06</v>
@@ -4931,23 +5102,23 @@
     </row>
     <row r="221" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>1264.0000000000018</v>
+        <v>1326.0000000000045</v>
       </c>
       <c r="B221" s="1">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="222" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>1269.0000000000055</v>
+        <v>1332.0000000000064</v>
       </c>
       <c r="B222" s="1">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="223" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>1274.9999999999964</v>
+        <v>1337.9999999999973</v>
       </c>
       <c r="B223" s="1">
         <v>0.05</v>
@@ -4955,31 +5126,31 @@
     </row>
     <row r="224" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>1280.9999999999982</v>
+        <v>1343.0000000000009</v>
       </c>
       <c r="B224" s="1">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="225" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>1286.0000000000018</v>
+        <v>1349.0000000000027</v>
       </c>
       <c r="B225" s="1">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="226" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>1292.0000000000036</v>
+        <v>1355.0000000000036</v>
       </c>
       <c r="B226" s="1">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="227" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>1298.0000000000045</v>
+        <v>1359.9999999999982</v>
       </c>
       <c r="B227" s="1">
         <v>0.05</v>
@@ -4987,23 +5158,23 @@
     </row>
     <row r="228" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>1302.9999999999982</v>
+        <v>1365.9999999999991</v>
       </c>
       <c r="B228" s="1">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="229" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>1309</v>
+        <v>1372</v>
       </c>
       <c r="B229" s="1">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="230" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>1315.0000000000009</v>
+        <v>1378</v>
       </c>
       <c r="B230" s="1">
         <v>0.04</v>
@@ -5011,31 +5182,31 @@
     </row>
     <row r="231" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>1321.0000000000009</v>
+        <v>1383.0000000000036</v>
       </c>
       <c r="B231" s="1">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="232" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>1326.0000000000045</v>
+        <v>1389.0000000000055</v>
       </c>
       <c r="B232" s="1">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="233" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>1332.0000000000064</v>
+        <v>1395.0000000000073</v>
       </c>
       <c r="B233" s="1">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="234" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>1337.9999999999973</v>
+        <v>1400.0000000000009</v>
       </c>
       <c r="B234" s="1">
         <v>0.03</v>
@@ -5043,15 +5214,15 @@
     </row>
     <row r="235" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>1343.0000000000009</v>
+        <v>1406.0000000000018</v>
       </c>
       <c r="B235" s="1">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="236" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>1349.0000000000027</v>
+        <v>1412.0000000000036</v>
       </c>
       <c r="B236" s="1">
         <v>0.03</v>
@@ -5059,47 +5230,47 @@
     </row>
     <row r="237" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>1355.0000000000036</v>
+        <v>1417.0000000000073</v>
       </c>
       <c r="B237" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="238" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>1359.9999999999982</v>
+        <v>1422.9999999999982</v>
       </c>
       <c r="B238" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="239" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>1365.9999999999991</v>
+        <v>1429</v>
       </c>
       <c r="B239" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="240" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>1372</v>
+        <v>1434.9999999999991</v>
       </c>
       <c r="B240" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="241" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>1378</v>
+        <v>1440.0000000000036</v>
       </c>
       <c r="B241" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="242" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>1383.0000000000036</v>
+        <v>1446.0000000000045</v>
       </c>
       <c r="B242" s="1">
         <v>0.02</v>
@@ -5107,7 +5278,7 @@
     </row>
     <row r="243" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>1389.0000000000055</v>
+        <v>1452.0000000000064</v>
       </c>
       <c r="B243" s="1">
         <v>0.02</v>
@@ -5115,7 +5286,7 @@
     </row>
     <row r="244" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>1395.0000000000073</v>
+        <v>1457</v>
       </c>
       <c r="B244" s="1">
         <v>0.02</v>
@@ -5123,15 +5294,15 @@
     </row>
     <row r="245" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>1400.0000000000009</v>
+        <v>1463.0000000000009</v>
       </c>
       <c r="B245" s="1">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="246" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>1406.0000000000018</v>
+        <v>1469.0000000000027</v>
       </c>
       <c r="B246" s="1">
         <v>0.02</v>
@@ -5139,7 +5310,7 @@
     </row>
     <row r="247" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>1412.0000000000036</v>
+        <v>1474.0000000000064</v>
       </c>
       <c r="B247" s="1">
         <v>0.02</v>
@@ -5147,23 +5318,23 @@
     </row>
     <row r="248" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>1417.0000000000073</v>
+        <v>1479.9999999999982</v>
       </c>
       <c r="B248" s="1">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="249" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>1422.9999999999982</v>
+        <v>1485.9999999999991</v>
       </c>
       <c r="B249" s="1">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="250" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>1429</v>
+        <v>1491.0000000000027</v>
       </c>
       <c r="B250" s="1">
         <v>0.01</v>
@@ -5171,23 +5342,23 @@
     </row>
     <row r="251" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>1434.9999999999991</v>
+        <v>1497.0000000000027</v>
       </c>
       <c r="B251" s="1">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="252" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>1440.0000000000036</v>
+        <v>1503.0000000000036</v>
       </c>
       <c r="B252" s="1">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="253" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>1446.0000000000045</v>
+        <v>1509.0000000000055</v>
       </c>
       <c r="B253" s="1">
         <v>0.01</v>
@@ -5195,7 +5366,7 @@
     </row>
     <row r="254" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>1452.0000000000064</v>
+        <v>1513.9999999999991</v>
       </c>
       <c r="B254" s="1">
         <v>0.01</v>
@@ -5203,7 +5374,7 @@
     </row>
     <row r="255" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>1457</v>
+        <v>1520.0000000000009</v>
       </c>
       <c r="B255" s="1">
         <v>0.01</v>
@@ -5211,7 +5382,7 @@
     </row>
     <row r="256" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>1463.0000000000009</v>
+        <v>1526.0000000000018</v>
       </c>
       <c r="B256" s="1">
         <v>0.01</v>
@@ -5219,7 +5390,7 @@
     </row>
     <row r="257" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>1469.0000000000027</v>
+        <v>1531.0000000000055</v>
       </c>
       <c r="B257" s="1">
         <v>0.01</v>
@@ -5227,15 +5398,15 @@
     </row>
     <row r="258" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>1474.0000000000064</v>
+        <v>1537.0000000000073</v>
       </c>
       <c r="B258" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>1479.9999999999982</v>
+        <v>1542.9999999999982</v>
       </c>
       <c r="B259" s="1">
         <v>0.01</v>
@@ -5243,7 +5414,7 @@
     </row>
     <row r="260" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>1485.9999999999991</v>
+        <v>1548.0000000000018</v>
       </c>
       <c r="B260" s="1">
         <v>0.01</v>
@@ -5251,23 +5422,23 @@
     </row>
     <row r="261" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>1491.0000000000027</v>
+        <v>1554.0000000000018</v>
       </c>
       <c r="B261" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>1497.0000000000027</v>
+        <v>1560.0000000000036</v>
       </c>
       <c r="B262" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>1503.0000000000036</v>
+        <v>1566.0000000000055</v>
       </c>
       <c r="B263" s="1">
         <v>0</v>
@@ -5275,31 +5446,31 @@
     </row>
     <row r="264" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>1509.0000000000055</v>
+        <v>1570.9999999999982</v>
       </c>
       <c r="B264" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>1513.9999999999991</v>
+        <v>1577</v>
       </c>
       <c r="B265" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>1520.0000000000009</v>
+        <v>1583.0000000000018</v>
       </c>
       <c r="B266" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="267" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>1526.0000000000018</v>
+        <v>1588.0000000000055</v>
       </c>
       <c r="B267" s="1">
         <v>0</v>
@@ -5307,7 +5478,7 @@
     </row>
     <row r="268" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>1531.0000000000055</v>
+        <v>1594.0000000000073</v>
       </c>
       <c r="B268" s="1">
         <v>0</v>
@@ -5315,7 +5486,7 @@
     </row>
     <row r="269" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>1537.0000000000073</v>
+        <v>1600.0000000000055</v>
       </c>
       <c r="B269" s="1">
         <v>0</v>
@@ -5323,7 +5494,7 @@
     </row>
     <row r="270" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>1542.9999999999982</v>
+        <v>1605.0000000000018</v>
       </c>
       <c r="B270" s="1">
         <v>0</v>
@@ -5331,15 +5502,15 @@
     </row>
     <row r="271" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>1548.0000000000018</v>
+        <v>1611.0000000000018</v>
       </c>
       <c r="B271" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>1554.0000000000018</v>
+        <v>1617.0000000000018</v>
       </c>
       <c r="B272" s="1">
         <v>0</v>
@@ -5347,7 +5518,7 @@
     </row>
     <row r="273" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>1560.0000000000036</v>
+        <v>1623.0000000000036</v>
       </c>
       <c r="B273" s="1">
         <v>0</v>
@@ -5355,7 +5526,7 @@
     </row>
     <row r="274" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>1566.0000000000055</v>
+        <v>1627.9999999999982</v>
       </c>
       <c r="B274" s="1">
         <v>0</v>
@@ -5363,7 +5534,7 @@
     </row>
     <row r="275" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>1570.9999999999982</v>
+        <v>1634</v>
       </c>
       <c r="B275" s="1">
         <v>0</v>
@@ -5371,7 +5542,7 @@
     </row>
     <row r="276" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>1577</v>
+        <v>1640</v>
       </c>
       <c r="B276" s="1">
         <v>0</v>
@@ -5379,7 +5550,7 @@
     </row>
     <row r="277" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>1583.0000000000018</v>
+        <v>1645.0000000000055</v>
       </c>
       <c r="B277" s="1">
         <v>0</v>
@@ -5387,7 +5558,7 @@
     </row>
     <row r="278" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>1588.0000000000055</v>
+        <v>1651.0000000000055</v>
       </c>
       <c r="B278" s="1">
         <v>0</v>
@@ -5395,7 +5566,7 @@
     </row>
     <row r="279" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>1594.0000000000073</v>
+        <v>1657.0000000000055</v>
       </c>
       <c r="B279" s="1">
         <v>0</v>
@@ -5403,7 +5574,7 @@
     </row>
     <row r="280" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>1600.0000000000055</v>
+        <v>1662.0000000000018</v>
       </c>
       <c r="B280" s="1">
         <v>0</v>
@@ -5411,7 +5582,7 @@
     </row>
     <row r="281" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>1605.0000000000018</v>
+        <v>1668</v>
       </c>
       <c r="B281" s="1">
         <v>0</v>
@@ -5419,7 +5590,7 @@
     </row>
     <row r="282" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>1611.0000000000018</v>
+        <v>1674.0000000000018</v>
       </c>
       <c r="B282" s="1">
         <v>0</v>
@@ -5427,7 +5598,7 @@
     </row>
     <row r="283" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>1617.0000000000018</v>
+        <v>1680.0000000000036</v>
       </c>
       <c r="B283" s="1">
         <v>0</v>
@@ -5435,7 +5606,7 @@
     </row>
     <row r="284" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>1623.0000000000036</v>
+        <v>1684.9999999999964</v>
       </c>
       <c r="B284" s="1">
         <v>0</v>
@@ -5443,7 +5614,7 @@
     </row>
     <row r="285" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>1627.9999999999982</v>
+        <v>1690.9999999999982</v>
       </c>
       <c r="B285" s="1">
         <v>0</v>
@@ -5451,7 +5622,7 @@
     </row>
     <row r="286" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>1634</v>
+        <v>1697</v>
       </c>
       <c r="B286" s="1">
         <v>0</v>
@@ -5459,7 +5630,7 @@
     </row>
     <row r="287" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>1640</v>
+        <v>1702.0000000000036</v>
       </c>
       <c r="B287" s="1">
         <v>0</v>
@@ -5467,7 +5638,7 @@
     </row>
     <row r="288" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>1645.0000000000055</v>
+        <v>1708.0000000000055</v>
       </c>
       <c r="B288" s="1">
         <v>0</v>
@@ -5475,7 +5646,7 @@
     </row>
     <row r="289" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>1651.0000000000055</v>
+        <v>1714.0000000000055</v>
       </c>
       <c r="B289" s="1">
         <v>0</v>
@@ -5483,7 +5654,7 @@
     </row>
     <row r="290" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>1657.0000000000055</v>
+        <v>1720.0000000000055</v>
       </c>
       <c r="B290" s="1">
         <v>0</v>
@@ -5491,7 +5662,7 @@
     </row>
     <row r="291" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>1662.0000000000018</v>
+        <v>1725</v>
       </c>
       <c r="B291" s="1">
         <v>0</v>
@@ -5499,7 +5670,7 @@
     </row>
     <row r="292" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>1668</v>
+        <v>1731.0000000000018</v>
       </c>
       <c r="B292" s="1">
         <v>0</v>
@@ -5507,7 +5678,7 @@
     </row>
     <row r="293" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>1674.0000000000018</v>
+        <v>1737.0000000000018</v>
       </c>
       <c r="B293" s="1">
         <v>0</v>
@@ -5515,7 +5686,7 @@
     </row>
     <row r="294" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>1680.0000000000036</v>
+        <v>1742.0000000000073</v>
       </c>
       <c r="B294" s="1">
         <v>0</v>
@@ -5523,7 +5694,7 @@
     </row>
     <row r="295" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>1684.9999999999964</v>
+        <v>1747.9999999999982</v>
       </c>
       <c r="B295" s="1">
         <v>0</v>
@@ -5531,7 +5702,7 @@
     </row>
     <row r="296" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>1690.9999999999982</v>
+        <v>1754</v>
       </c>
       <c r="B296" s="1">
         <v>0</v>
@@ -5539,7 +5710,7 @@
     </row>
     <row r="297" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>1697</v>
+        <v>1759.0000000000036</v>
       </c>
       <c r="B297" s="1">
         <v>0</v>
@@ -5547,7 +5718,7 @@
     </row>
     <row r="298" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>1702.0000000000036</v>
+        <v>1765.0000000000055</v>
       </c>
       <c r="B298" s="1">
         <v>0</v>
@@ -5555,7 +5726,7 @@
     </row>
     <row r="299" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>1708.0000000000055</v>
+        <v>1771.0000000000036</v>
       </c>
       <c r="B299" s="1">
         <v>0</v>
@@ -5563,7 +5734,7 @@
     </row>
     <row r="300" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>1714.0000000000055</v>
+        <v>1777.0000000000055</v>
       </c>
       <c r="B300" s="1">
         <v>0</v>
@@ -5571,7 +5742,7 @@
     </row>
     <row r="301" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>1720.0000000000055</v>
+        <v>1782</v>
       </c>
       <c r="B301" s="1">
         <v>0</v>
@@ -5579,7 +5750,7 @@
     </row>
     <row r="302" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>1725</v>
+        <v>1788</v>
       </c>
       <c r="B302" s="1">
         <v>0</v>
@@ -5587,7 +5758,7 @@
     </row>
     <row r="303" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>1731.0000000000018</v>
+        <v>1794.0000000000018</v>
       </c>
       <c r="B303" s="1">
         <v>0</v>
@@ -5595,7 +5766,7 @@
     </row>
     <row r="304" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>1737.0000000000018</v>
+        <v>1799.0000000000055</v>
       </c>
       <c r="B304" s="1">
         <v>0</v>
@@ -5603,7 +5774,7 @@
     </row>
     <row r="305" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>1742.0000000000073</v>
+        <v>1805.0000000000073</v>
       </c>
       <c r="B305" s="1">
         <v>0</v>
@@ -5611,7 +5782,7 @@
     </row>
     <row r="306" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>1747.9999999999982</v>
+        <v>1810.9999999999982</v>
       </c>
       <c r="B306" s="1">
         <v>0</v>
@@ -5619,7 +5790,7 @@
     </row>
     <row r="307" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>1754</v>
+        <v>1816.0000000000018</v>
       </c>
       <c r="B307" s="1">
         <v>0</v>
@@ -5627,7 +5798,7 @@
     </row>
     <row r="308" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>1759.0000000000036</v>
+        <v>1822.0000000000036</v>
       </c>
       <c r="B308" s="1">
         <v>0</v>
@@ -5635,7 +5806,7 @@
     </row>
     <row r="309" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>1765.0000000000055</v>
+        <v>1828.0000000000036</v>
       </c>
       <c r="B309" s="1">
         <v>0</v>
@@ -5643,7 +5814,7 @@
     </row>
     <row r="310" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>1771.0000000000036</v>
+        <v>1834.0000000000055</v>
       </c>
       <c r="B310" s="1">
         <v>0</v>
@@ -5651,7 +5822,7 @@
     </row>
     <row r="311" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>1777.0000000000055</v>
+        <v>1838.9999999999982</v>
       </c>
       <c r="B311" s="1">
         <v>0</v>
@@ -5659,7 +5830,7 @@
     </row>
     <row r="312" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>1782</v>
+        <v>1845</v>
       </c>
       <c r="B312" s="1">
         <v>0</v>
@@ -5667,7 +5838,7 @@
     </row>
     <row r="313" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>1788</v>
+        <v>1851.0000000000018</v>
       </c>
       <c r="B313" s="1">
         <v>0</v>
@@ -5675,7 +5846,7 @@
     </row>
     <row r="314" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>1794.0000000000018</v>
+        <v>1856.0000000000055</v>
       </c>
       <c r="B314" s="1">
         <v>0</v>
@@ -5683,7 +5854,7 @@
     </row>
     <row r="315" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>1799.0000000000055</v>
+        <v>1862.0000000000073</v>
       </c>
       <c r="B315" s="1">
         <v>0</v>
@@ -5691,7 +5862,7 @@
     </row>
     <row r="316" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>1805.0000000000073</v>
+        <v>1867.9999999999982</v>
       </c>
       <c r="B316" s="1">
         <v>0</v>
@@ -5699,7 +5870,7 @@
     </row>
     <row r="317" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>1810.9999999999982</v>
+        <v>1873.0000000000018</v>
       </c>
       <c r="B317" s="1">
         <v>0</v>
@@ -5707,7 +5878,7 @@
     </row>
     <row r="318" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>1816.0000000000018</v>
+        <v>1879.0000000000036</v>
       </c>
       <c r="B318" s="1">
         <v>0</v>
@@ -5715,7 +5886,7 @@
     </row>
     <row r="319" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>1822.0000000000036</v>
+        <v>1885.0000000000036</v>
       </c>
       <c r="B319" s="1">
         <v>0</v>
@@ -5723,7 +5894,7 @@
     </row>
     <row r="320" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>1828.0000000000036</v>
+        <v>1891.0000000000036</v>
       </c>
       <c r="B320" s="1">
         <v>0</v>
@@ -5731,7 +5902,7 @@
     </row>
     <row r="321" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>1834.0000000000055</v>
+        <v>1895.9999999999982</v>
       </c>
       <c r="B321" s="1">
         <v>0</v>
@@ -5739,7 +5910,7 @@
     </row>
     <row r="322" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>1838.9999999999982</v>
+        <v>1902</v>
       </c>
       <c r="B322" s="1">
         <v>0</v>
@@ -5747,7 +5918,7 @@
     </row>
     <row r="323" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>1845</v>
+        <v>1908</v>
       </c>
       <c r="B323" s="1">
         <v>0</v>
@@ -5755,7 +5926,7 @@
     </row>
     <row r="324" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
-        <v>1851.0000000000018</v>
+        <v>1913.0000000000055</v>
       </c>
       <c r="B324" s="1">
         <v>0</v>
@@ -5763,7 +5934,7 @@
     </row>
     <row r="325" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
-        <v>1856.0000000000055</v>
+        <v>1919.0000000000055</v>
       </c>
       <c r="B325" s="1">
         <v>0</v>
@@ -5771,7 +5942,8 @@
     </row>
     <row r="326" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
-        <v>1862.0000000000073</v>
+        <f>A325+6</f>
+        <v>1925.0000000000055</v>
       </c>
       <c r="B326" s="1">
         <v>0</v>
@@ -5779,7 +5951,8 @@
     </row>
     <row r="327" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
-        <v>1867.9999999999982</v>
+        <f t="shared" ref="A327:A336" si="0">A326+6</f>
+        <v>1931.0000000000055</v>
       </c>
       <c r="B327" s="1">
         <v>0</v>
@@ -5787,7 +5960,8 @@
     </row>
     <row r="328" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>1873.0000000000018</v>
+        <f t="shared" si="0"/>
+        <v>1937.0000000000055</v>
       </c>
       <c r="B328" s="1">
         <v>0</v>
@@ -5795,7 +5969,8 @@
     </row>
     <row r="329" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>1879.0000000000036</v>
+        <f t="shared" si="0"/>
+        <v>1943.0000000000055</v>
       </c>
       <c r="B329" s="1">
         <v>0</v>
@@ -5803,7 +5978,8 @@
     </row>
     <row r="330" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>1885.0000000000036</v>
+        <f t="shared" si="0"/>
+        <v>1949.0000000000055</v>
       </c>
       <c r="B330" s="1">
         <v>0</v>
@@ -5811,7 +5987,8 @@
     </row>
     <row r="331" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>1891.0000000000036</v>
+        <f t="shared" si="0"/>
+        <v>1955.0000000000055</v>
       </c>
       <c r="B331" s="1">
         <v>0</v>
@@ -5819,7 +5996,8 @@
     </row>
     <row r="332" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>1895.9999999999982</v>
+        <f t="shared" si="0"/>
+        <v>1961.0000000000055</v>
       </c>
       <c r="B332" s="1">
         <v>0</v>
@@ -5827,7 +6005,8 @@
     </row>
     <row r="333" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>1902</v>
+        <f t="shared" si="0"/>
+        <v>1967.0000000000055</v>
       </c>
       <c r="B333" s="1">
         <v>0</v>
@@ -5835,7 +6014,8 @@
     </row>
     <row r="334" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>1908</v>
+        <f t="shared" si="0"/>
+        <v>1973.0000000000055</v>
       </c>
       <c r="B334" s="1">
         <v>0</v>
@@ -5843,7 +6023,8 @@
     </row>
     <row r="335" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>1913.0000000000055</v>
+        <f t="shared" si="0"/>
+        <v>1979.0000000000055</v>
       </c>
       <c r="B335" s="1">
         <v>0</v>
@@ -5851,7 +6032,8 @@
     </row>
     <row r="336" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>1919.0000000000055</v>
+        <f t="shared" si="0"/>
+        <v>1985.0000000000055</v>
       </c>
       <c r="B336" s="1">
         <v>0</v>
